--- a/profs/xlsx/Расписание Белобжеский Леонид Антонович.xlsx
+++ b/profs/xlsx/Расписание Белобжеский Леонид Антонович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Белобжеский Л.А.</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">ауд.326(3), Базы и банки данных, ЛР, 3О-506С-14 (13.09-20.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.326(3), Базы и банки данных, ПЗ, 3О-506С-14 (13.09-20.12) </t>
   </si>
   <si>
     <t xml:space="preserve">Пятница</t>
@@ -455,7 +458,9 @@
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
@@ -471,17 +476,17 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -499,7 +504,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -521,7 +526,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -548,13 +553,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -577,7 +582,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="A13:A14"/>

--- a/profs/xlsx/Расписание Белобжеский Леонид Антонович.xlsx
+++ b/profs/xlsx/Расписание Белобжеский Леонид Антонович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -317,8 +317,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
